--- a/xlsx/道奇汽车_intext.xlsx
+++ b/xlsx/道奇汽车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>道奇汽车</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_道奇汽车</t>
+    <t>创办人</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_道奇汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧本山</t>
+    <t>奥本山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A5%87%E6%8C%91%E6%88%B0%E8%80%85</t>
   </si>
   <si>
-    <t>道奇挑戰者</t>
+    <t>道奇挑战者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>自行車</t>
+    <t>自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%AD%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>救護車</t>
+    <t>救护车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E7%82%8E</t>
@@ -143,37 +143,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%82%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>廂型車</t>
+    <t>厢型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%BC%AA</t>
   </si>
   <si>
-    <t>車輪</t>
+    <t>车轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>克萊斯勒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MPV</t>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>戴姆勒集團</t>
+    <t>戴姆勒集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>賓士</t>
+    <t>宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%91%BD%E9%97%9C%E9%A0%AD</t>
   </si>
   <si>
-    <t>玩命關頭</t>
+    <t>玩命关头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A5%87%E6%AF%92%E8%9B%87</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%8F%A4%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>太古集團</t>
+    <t>太古集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Abarth</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%8E%E6%8B%89%E8%92%82</t>
   </si>
   <si>
-    <t>瑪莎拉蒂</t>
+    <t>玛莎拉蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SRT</t>
@@ -1355,7 +1352,7 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
@@ -1381,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1410,10 +1407,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1439,10 +1436,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -1468,10 +1465,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1497,10 +1494,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1526,10 +1523,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1555,10 +1552,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1584,10 +1581,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1642,10 +1639,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -1671,10 +1668,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1700,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1729,10 +1726,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1758,10 +1755,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>80</v>
@@ -1787,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>16</v>
@@ -1816,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1845,10 +1842,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1874,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1903,10 +1900,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>8</v>
@@ -1932,10 +1929,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1961,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1990,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
         <v>69</v>
-      </c>
-      <c r="F46" t="s">
-        <v>70</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2019,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
         <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2048,10 +2045,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
         <v>75</v>
-      </c>
-      <c r="F48" t="s">
-        <v>76</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2077,10 +2074,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
         <v>79</v>
-      </c>
-      <c r="F49" t="s">
-        <v>80</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2106,10 +2103,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
         <v>89</v>
-      </c>
-      <c r="F50" t="s">
-        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2164,10 +2161,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
         <v>91</v>
-      </c>
-      <c r="F52" t="s">
-        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2193,10 +2190,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2222,10 +2219,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s">
         <v>81</v>
-      </c>
-      <c r="F54" t="s">
-        <v>82</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2251,10 +2248,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
         <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>96</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2280,10 +2277,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
         <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2309,10 +2306,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
         <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
